--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FB38BD-1379-4118-96B6-BE9A32F5E099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BF82A-4B6E-49DB-B1D5-3B7B66E10BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">英属哥伦比亚省	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">多伦多大学	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">不列颠哥伦比亚省	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">蒙特利尔大学	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不列颠哥伦比亚省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约克大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,18 +256,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024
-QS排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024
-麦考林排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024
-QS学科</t>
+    <t xml:space="preserve">哥伦比亚省	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥伦比亚省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魁北克省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦考林排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS学科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -662,7 +663,7 @@
     <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,16 +674,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -710,16 +711,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -733,16 +734,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -756,16 +757,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -779,16 +780,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -802,16 +803,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -825,16 +826,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -848,16 +849,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -871,16 +872,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -894,16 +895,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -917,16 +918,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -940,16 +941,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -963,10 +964,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -980,16 +987,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1003,16 +1010,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1026,16 +1033,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1046,16 +1053,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -1069,16 +1076,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1092,16 +1099,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1112,16 +1119,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>20</v>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BF82A-4B6E-49DB-B1D5-3B7B66E10BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEFC32D-A17E-4AC3-98C8-DE787B411D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
@@ -272,15 +272,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>麦考林排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QS排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QS学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦考林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -677,13 +677,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEFC32D-A17E-4AC3-98C8-DE787B411D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC90FDA9-6781-4744-BA62-19249894A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
+    <sheet name="声誉排行" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +282,197 @@
   </si>
   <si>
     <t>QS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>UBC</t>
+  </si>
+  <si>
+    <t>McGill</t>
+  </si>
+  <si>
+    <t>Queen's</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>Simon Fraser</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Dalhousie</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Concordia</t>
+  </si>
+  <si>
+    <t>Toronto Metropolitan</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Wilfrid Laurier</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>UQAM</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Mount Allison</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Ontario Tech</t>
+  </si>
+  <si>
+    <t>UNBC</t>
+  </si>
+  <si>
+    <t>Acadia</t>
+  </si>
+  <si>
+    <t>St. Francis Xavier</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>Saint Mary's</t>
+  </si>
+  <si>
+    <t>UPEI</t>
+  </si>
+  <si>
+    <t>Lethbridge</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Moncton</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+  </si>
+  <si>
+    <t>Bishop's</t>
+  </si>
+  <si>
+    <t>Lakehead</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Mount Saint Vincent</t>
+  </si>
+  <si>
+    <t>Cape Breton</t>
+  </si>
+  <si>
+    <t>St. Thomas</t>
+  </si>
+  <si>
+    <t>Nipissing</t>
+  </si>
+  <si>
+    <t>Laurentian</t>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://education.macleans.ca/university-rankings/canadas-best-universities-by-reputation-rankings-2023/</t>
+  </si>
+  <si>
+    <t>麦吉尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女皇大学</t>
+  </si>
+  <si>
+    <t>西蒙弗雷泽大学</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guelph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安大略大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约克大学</t>
+  </si>
+  <si>
+    <t>Laval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔顿大学</t>
+  </si>
+  <si>
+    <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +495,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--font-family-sans-alt)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,11 +532,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,11 +864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
@@ -663,7 +877,7 @@
     <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -709,7 +923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -732,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -755,9 +969,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -778,7 +992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -801,7 +1015,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -824,7 +1038,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -847,7 +1061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -870,7 +1084,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -893,7 +1107,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -916,7 +1130,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -939,7 +1153,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -962,7 +1176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -985,7 +1199,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1008,7 +1222,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1031,7 +1245,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1051,7 +1265,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1074,7 +1288,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1097,7 +1311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1117,7 +1331,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1135,6 +1349,502 @@
       </c>
       <c r="F21">
         <v>671</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724104B-C0F9-4F48-9791-898B1DFC265E}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.5">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.5">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.5">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.5">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.5">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.5">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.5">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.5">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="43.5">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.5">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.5">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.5">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.5">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.5">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.5">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.5">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.5">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="43.5">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.5">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="29">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.5">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC90FDA9-6781-4744-BA62-19249894A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B8F72-FB5F-452E-BD90-64105F09F4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
     <sheet name="声誉排行" sheetId="2" r:id="rId2"/>
+    <sheet name="数学" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="144">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +474,88 @@
   </si>
   <si>
     <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Overall Ranking</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>16*</t>
+  </si>
+  <si>
+    <t>20*</t>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McGill University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université de Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙弗雷泽大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université du Québec à Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université Laval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新不伦瑞克大学</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魁北克大学蒙特利尔分校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,21 +592,68 @@
       <name val="Var(--font-family-sans-alt)"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF676767"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF676767"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -532,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +677,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1361,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724104B-C0F9-4F48-9791-898B1DFC265E}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection sqref="A1:C50"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1472,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29">
+    <row r="10" spans="1:5" ht="14.5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1538,7 +1680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29">
+    <row r="16" spans="1:5" ht="14.5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1571,7 +1713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29">
+    <row r="19" spans="1:3" ht="14.5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1582,7 +1724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5">
+    <row r="20" spans="1:3" ht="14.5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1590,7 +1732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29">
+    <row r="21" spans="1:3" ht="14.5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1609,7 +1751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29">
+    <row r="23" spans="1:3" ht="14.5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1617,7 +1759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29">
+    <row r="24" spans="1:3" ht="14.5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1660,7 +1802,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29">
+    <row r="29" spans="1:3" ht="14.5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1668,7 +1810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.5">
+    <row r="30" spans="1:3" ht="14.5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1684,7 +1826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29">
+    <row r="32" spans="1:3" ht="14.5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1708,7 +1850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="43.5">
+    <row r="35" spans="1:2" ht="14.5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1724,7 +1866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="29">
+    <row r="37" spans="1:2" ht="14.5">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1740,7 +1882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="29">
+    <row r="39" spans="1:2" ht="14.5">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1796,7 +1938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.5">
+    <row r="46" spans="1:2" ht="14.5">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1804,7 +1946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="29">
+    <row r="47" spans="1:2" ht="14.5">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1812,7 +1954,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29">
+    <row r="48" spans="1:2" ht="14.5">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1828,7 +1970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29">
+    <row r="50" spans="1:2" ht="14.5">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1846,6 +1988,355 @@
       <c r="B55" t="s">
         <v>109</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1348E6CB-E3E5-4589-B786-78B52A7FC6EF}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="26.4140625" customWidth="1"/>
+    <col min="3" max="3" width="37.58203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.5" thickBot="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B8F72-FB5F-452E-BD90-64105F09F4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADDA492-5E7E-4F9F-973F-83FDE4913625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
-    <sheet name="声誉排行" sheetId="2" r:id="rId2"/>
-    <sheet name="数学" sheetId="3" r:id="rId3"/>
+    <sheet name="数学" sheetId="3" r:id="rId2"/>
+    <sheet name="声誉排行" sheetId="2" r:id="rId3"/>
+    <sheet name="医博类" sheetId="4" r:id="rId4"/>
+    <sheet name="U15联盟" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="189">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,133 +439,336 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>西蒙弗雷泽大学</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guelph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安大略大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约克大学</t>
+  </si>
+  <si>
+    <t>Laval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔顿大学</t>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Overall Ranking</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>16*</t>
+  </si>
+  <si>
+    <t>20*</t>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McGill University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université de Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙弗雷泽大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université du Québec à Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université Laval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新不伦瑞克大学</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魁北克大学蒙特利尔分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>Medical Doctoral Universities: Rankings 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://education.macleans.ca/feature/canadas-best-medical-doctoral-universities-rankings-2024/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manitoba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McGill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦吉尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多伦多大学</t>
+  </si>
+  <si>
+    <t>多伦多大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克马斯特大学</t>
+  </si>
+  <si>
+    <t>渥太华大学</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿尔伯塔大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡尔加里大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔豪斯大学</t>
+  </si>
+  <si>
     <t>女皇大学</t>
-  </si>
-  <si>
-    <t>西蒙弗雷泽大学</t>
-  </si>
-  <si>
-    <t>Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guelph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安大略大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约克大学</t>
-  </si>
-  <si>
-    <t>Laval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McMaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔顿大学</t>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Overall Ranking</t>
-  </si>
-  <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>16*</t>
-  </si>
-  <si>
-    <t>20*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒙特利尔大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉瓦尔大学</t>
+  </si>
+  <si>
+    <t>曼尼托巴大学</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍布鲁克大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨斯喀彻温大学</t>
+  </si>
+  <si>
+    <t>萨斯喀彻温大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名字</t>
+  </si>
+  <si>
+    <t>英文名字</t>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+  </si>
+  <si>
+    <t>不列颠哥伦比亚大学</t>
   </si>
   <si>
     <t>University of British Columbia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université Laval</t>
+  </si>
+  <si>
+    <t>女王大学</t>
+  </si>
+  <si>
+    <t>Queen's University</t>
+  </si>
+  <si>
+    <t>McMaster University</t>
+  </si>
+  <si>
+    <t>滑铁卢大学</t>
   </si>
   <si>
     <t>University of Waterloo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McGill University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen's University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔伯塔大学</t>
+  </si>
+  <si>
+    <t>University of Alberta</t>
+  </si>
+  <si>
+    <t>Dalhousie University</t>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+  </si>
+  <si>
+    <t>韦仕敦大学</t>
+  </si>
+  <si>
+    <t>Western University</t>
+  </si>
+  <si>
+    <t>University of Manitoba</t>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
+  </si>
+  <si>
+    <t>卡尔加里大学</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+  </si>
+  <si>
+    <t>蒙特利尔大学</t>
   </si>
   <si>
     <t>Université de Montréal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙弗雷泽大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simon Fraser University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Western University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Université du Québec à Montréal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Ottawa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Université Laval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of New Brunswick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新不伦瑞克大学</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魁北克大学蒙特利尔分校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +817,49 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Var(--font-family-sans-narrow)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -633,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -656,13 +904,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,9 +956,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1006,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1500,506 +1785,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724104B-C0F9-4F48-9791-898B1DFC265E}">
-  <dimension ref="A1:E55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.5">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.5">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.5">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.5">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.5">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.5">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.5">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.5">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.5">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.5">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.5">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.5">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.5">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.5">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.5">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.5">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.5">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.5">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.5">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.5">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.5">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.5">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.5">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.5">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.5">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.5">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.5">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.5">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.5">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.5">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.5">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.5">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.5">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.5">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.5">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1348E6CB-E3E5-4589-B786-78B52A7FC6EF}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2014,16 +1803,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1">
@@ -2034,10 +1823,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" thickBot="1">
@@ -2048,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -2063,10 +1852,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" thickBot="1">
@@ -2077,7 +1866,7 @@
         <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
@@ -2105,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -2119,7 +1908,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
@@ -2144,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
         <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
@@ -2175,7 +1964,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="6">
         <v>11</v>
@@ -2189,7 +1978,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="7">
         <v>12</v>
@@ -2228,10 +2017,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="6">
         <v>15</v>
@@ -2248,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" thickBot="1">
@@ -2259,10 +2048,10 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" thickBot="1">
@@ -2301,10 +2090,10 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.5" thickBot="1">
@@ -2318,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1">
@@ -2326,17 +2115,1059 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="F25" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724104B-C0F9-4F48-9791-898B1DFC265E}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.5">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.5">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.5">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.5">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.5">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.5">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.5">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.5">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.5">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.5">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.5">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.5">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.5">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.5">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.5">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.5">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.5">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.5">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.5">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.5">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.5">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.5">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.5">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.5">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.5">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.5">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.5">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.5">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.5">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.5">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.5">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2EA83-C696-4901-83BF-02B4FA7DA644}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="42.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5">
+      <c r="A5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5">
+      <c r="A8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.5">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5">
+      <c r="A12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="9">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="9">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5">
+      <c r="A14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5">
+      <c r="A15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5">
+      <c r="A16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{3769C07A-330A-46F5-9A5D-09B1A913B01A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE3037-B7B8-48FB-9E35-A9F6D1E4F225}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A4" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A9" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A11" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A14" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A16" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADDA492-5E7E-4F9F-973F-83FDE4913625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A40AEE7-BB09-4932-B3B1-B25FA36267E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
     <sheet name="数学" sheetId="3" r:id="rId2"/>
     <sheet name="声誉排行" sheetId="2" r:id="rId3"/>
-    <sheet name="医博类" sheetId="4" r:id="rId4"/>
-    <sheet name="U15联盟" sheetId="5" r:id="rId5"/>
+    <sheet name="综合类" sheetId="6" r:id="rId4"/>
+    <sheet name="基础类" sheetId="7" r:id="rId5"/>
+    <sheet name="医博类" sheetId="4" r:id="rId6"/>
+    <sheet name="U15联盟" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="316">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">西蒙弗雷泽大学	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">蒙特利尔大学	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,433 +340,827 @@
     <t>Wilfrid Laurier</t>
   </si>
   <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>UQAM</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Mount Allison</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Ontario Tech</t>
+  </si>
+  <si>
+    <t>UNBC</t>
+  </si>
+  <si>
+    <t>Acadia</t>
+  </si>
+  <si>
+    <t>St. Francis Xavier</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>Saint Mary's</t>
+  </si>
+  <si>
+    <t>UPEI</t>
+  </si>
+  <si>
+    <t>Lethbridge</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Moncton</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+  </si>
+  <si>
+    <t>Bishop's</t>
+  </si>
+  <si>
+    <t>Lakehead</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Mount Saint Vincent</t>
+  </si>
+  <si>
+    <t>Cape Breton</t>
+  </si>
+  <si>
+    <t>St. Thomas</t>
+  </si>
+  <si>
+    <t>Nipissing</t>
+  </si>
+  <si>
+    <t>Laurentian</t>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦吉尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙弗雷泽大学</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guelph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安大略大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约克大学</t>
+  </si>
+  <si>
+    <t>Laval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔顿大学</t>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Overall Ranking</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>16*</t>
+  </si>
+  <si>
+    <t>20*</t>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McGill University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université de Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université du Québec à Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université Laval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新不伦瑞克大学</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魁北克大学蒙特利尔分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>https://education.macleans.ca/feature/canadas-best-medical-doctoral-universities-rankings-2024/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manitoba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McGill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多伦多大学</t>
+  </si>
+  <si>
+    <t>多伦多大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克马斯特大学</t>
+  </si>
+  <si>
+    <t>渥太华大学</t>
+  </si>
+  <si>
+    <t>达尔豪斯大学</t>
+  </si>
+  <si>
+    <t>拉瓦尔大学</t>
+  </si>
+  <si>
+    <t>曼尼托巴大学</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍布鲁克大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨斯喀彻温大学</t>
+  </si>
+  <si>
+    <t>萨斯喀彻温大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名字</t>
+  </si>
+  <si>
+    <t>英文名字</t>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+  </si>
+  <si>
+    <t>不列颠哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+  </si>
+  <si>
+    <t>Université Laval</t>
+  </si>
+  <si>
+    <t>女王大学</t>
+  </si>
+  <si>
+    <t>Queen's University</t>
+  </si>
+  <si>
+    <t>McMaster University</t>
+  </si>
+  <si>
+    <t>滑铁卢大学</t>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+  </si>
+  <si>
+    <t>阿尔伯塔大学</t>
+  </si>
+  <si>
+    <t>University of Alberta</t>
+  </si>
+  <si>
+    <t>Dalhousie University</t>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+  </si>
+  <si>
+    <t>韦仕敦大学</t>
+  </si>
+  <si>
+    <t>Western University</t>
+  </si>
+  <si>
+    <t>University of Manitoba</t>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
+  </si>
+  <si>
+    <t>卡尔加里大学</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+  </si>
+  <si>
+    <t>蒙特利尔大学</t>
+  </si>
+  <si>
+    <t>Université de Montréal</t>
+  </si>
+  <si>
+    <t>Simon Fraser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">西蒙菲莎大学	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙菲莎大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victoria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维多利亚大学</t>
+  </si>
+  <si>
+    <t>圭尔夫大学</t>
+  </si>
+  <si>
     <t>Memorial</t>
-  </si>
-  <si>
-    <t>Manitoba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽芬兰纪念大学</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concordia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康考迪亚大学</t>
+  </si>
+  <si>
+    <t>Toronto Metropolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多伦多都会大学</t>
+  </si>
+  <si>
+    <t>Wilfrid Laurier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UQAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特利尔魁北克大学</t>
   </si>
   <si>
     <t>Brock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁克大学</t>
+  </si>
+  <si>
+    <t>Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里贾纳大学</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温莎大学</t>
+  </si>
+  <si>
+    <t>Algoma</t>
   </si>
   <si>
     <t>Mount Allison</t>
-  </si>
-  <si>
-    <t>New Brunswick</t>
-  </si>
-  <si>
-    <t>Trent</t>
-  </si>
-  <si>
-    <t>Ontario Tech</t>
-  </si>
-  <si>
-    <t>UNBC</t>
-  </si>
-  <si>
-    <t>Acadia</t>
-  </si>
-  <si>
-    <t>St. Francis Xavier</t>
-  </si>
-  <si>
-    <t>Winnipeg</t>
-  </si>
-  <si>
-    <t>Saint Mary's</t>
-  </si>
-  <si>
-    <t>UPEI</t>
-  </si>
-  <si>
-    <t>Lethbridge</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>Moncton</t>
-  </si>
-  <si>
-    <t>Windsor</t>
-  </si>
-  <si>
-    <t>Bishop's</t>
-  </si>
-  <si>
-    <t>Lakehead</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Mount Saint Vincent</t>
-  </si>
-  <si>
-    <t>Cape Breton</t>
-  </si>
-  <si>
-    <t>St. Thomas</t>
-  </si>
-  <si>
-    <t>Nipissing</t>
-  </si>
-  <si>
-    <t>Laurentian</t>
-  </si>
-  <si>
-    <t>排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+  </si>
+  <si>
+    <t>艾蒙森山大学</t>
+  </si>
+  <si>
+    <t>University of Northern British Columbia</t>
+  </si>
+  <si>
+    <t>北不列颠哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>Saint Mary's University</t>
+  </si>
+  <si>
+    <t>圣玛丽大学</t>
+  </si>
+  <si>
+    <t>Bishop's University</t>
+  </si>
+  <si>
+    <t>主教大学</t>
+  </si>
+  <si>
+    <t>Acadia University</t>
+  </si>
+  <si>
+    <t>阿卡迪亚大学</t>
+  </si>
+  <si>
+    <t>University of Lethbridge</t>
+  </si>
+  <si>
+    <t>莱斯布里奇大学</t>
+  </si>
+  <si>
+    <t>Trent University</t>
+  </si>
+  <si>
+    <t>特伦特大学</t>
+  </si>
+  <si>
+    <t>Ontario Tech University</t>
+  </si>
+  <si>
+    <t>安大略科技大学</t>
+  </si>
+  <si>
+    <t>St. Francis Xavier University</t>
+  </si>
+  <si>
+    <t>圣方济各泽维尔大学</t>
+  </si>
+  <si>
+    <t>University of Prince Edward Island</t>
+  </si>
+  <si>
+    <t>爱德华王子岛大学</t>
+  </si>
+  <si>
+    <t>Lakehead University</t>
+  </si>
+  <si>
+    <t>湖首大学</t>
+  </si>
+  <si>
+    <t>Université de Moncton</t>
+  </si>
+  <si>
+    <t>蒙克顿大学</t>
+  </si>
+  <si>
+    <t>St. Thomas University</t>
+  </si>
+  <si>
+    <t>圣托马斯大学</t>
+  </si>
+  <si>
+    <t>University of Winnipeg</t>
+  </si>
+  <si>
+    <t>温尼伯大学</t>
+  </si>
+  <si>
+    <t>Laurentian University</t>
+  </si>
+  <si>
+    <t>拉瓦伦大学</t>
+  </si>
+  <si>
+    <t>Mount Saint Vincent University</t>
+  </si>
+  <si>
+    <t>圣文森特山大学</t>
+  </si>
+  <si>
+    <t>Brandon University</t>
+  </si>
+  <si>
+    <t>布兰登大学</t>
+  </si>
+  <si>
+    <t>Nipissing University</t>
+  </si>
+  <si>
+    <t>尼皮辛大学</t>
+  </si>
+  <si>
+    <t>Cape Breton University</t>
+  </si>
+  <si>
+    <t>开普布雷顿大学</t>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后大学</t>
+  </si>
+  <si>
+    <t>西安大略大学</t>
+  </si>
+  <si>
+    <t>Université de Sherbrooke</t>
+  </si>
+  <si>
+    <t>舍布鲁克大学</t>
+  </si>
+  <si>
+    <t>不列颠哥伦比亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔伯塔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔加里大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔豪西大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特利尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université de Sherbrooke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾蒙森山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Northern British Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北不列颠哥伦比亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Mary's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣玛丽大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bishop's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acadia University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿卡迪亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Lethbridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱斯布里奇大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trent University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特伦特大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ontario Tech University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安大略科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Francis Xavier University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣方济各泽维尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Prince Edward Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱德华王子岛大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lakehead University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖首大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université de Moncton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙克顿大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Thomas University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣托马斯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Winnipeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温尼伯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laurentian University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉瓦伦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Saint Vincent University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣文森特山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布兰登大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nipissing University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼皮辛大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algoma University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔戈马大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Breton University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开普布雷顿大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+  </si>
+  <si>
+    <t>University of Victoria</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Carleton University</t>
+  </si>
+  <si>
+    <t>University of Guelph</t>
+  </si>
+  <si>
+    <t>Memorial University of Newfoundland</t>
+  </si>
+  <si>
+    <t>University of New Brunswick</t>
+  </si>
+  <si>
+    <t>Concordia University</t>
+  </si>
+  <si>
+    <t>Toronto Metropolitan University</t>
+  </si>
+  <si>
+    <t>Wilfrid Laurier University</t>
+  </si>
+  <si>
+    <t>劳里埃大学</t>
+  </si>
+  <si>
+    <t>Université du Québec à Montréal</t>
+  </si>
+  <si>
+    <t>Brock University</t>
+  </si>
+  <si>
+    <t>University of Regina</t>
+  </si>
+  <si>
+    <t>University of Windsor</t>
+  </si>
+  <si>
+    <t>达尔豪斯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医博排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合类排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://education.macleans.ca/university-rankings/canadas-best-universities-by-reputation-rankings-2023/</t>
-  </si>
-  <si>
-    <t>麦吉尔大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙弗雷泽大学</t>
-  </si>
-  <si>
-    <t>Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guelph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安大略大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约克大学</t>
-  </si>
-  <si>
-    <t>Laval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McMaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔顿大学</t>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Overall Ranking</t>
-  </si>
-  <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>16*</t>
-  </si>
-  <si>
-    <t>20*</t>
-  </si>
-  <si>
-    <t>University of British Columbia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Waterloo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McGill University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen's University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Université de Montréal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙弗雷泽大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simon Fraser University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Western University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Université du Québec à Montréal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Ottawa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Université Laval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of New Brunswick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新不伦瑞克大学</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魁北克大学蒙特利尔分校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McMaster</t>
-  </si>
-  <si>
-    <t>Calgary</t>
-  </si>
-  <si>
-    <t>Medical Doctoral Universities: Rankings 2024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://education.macleans.ca/feature/canadas-best-medical-doctoral-universities-rankings-2024/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manitoba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McGill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦吉尔大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多伦多大学</t>
-  </si>
-  <si>
-    <t>多伦多大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克马斯特大学</t>
-  </si>
-  <si>
-    <t>渥太华大学</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阿尔伯塔大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡尔加里大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达尔豪斯大学</t>
-  </si>
-  <si>
-    <t>女皇大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蒙特利尔大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉瓦尔大学</t>
-  </si>
-  <si>
-    <t>曼尼托巴大学</t>
-  </si>
-  <si>
-    <t>Sherbrooke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舍布鲁克大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saskatchewan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨斯喀彻温大学</t>
-  </si>
-  <si>
-    <t>萨斯喀彻温大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名字</t>
-  </si>
-  <si>
-    <t>英文名字</t>
-  </si>
-  <si>
-    <t>University of Toronto</t>
-  </si>
-  <si>
-    <t>不列颠哥伦比亚大学</t>
-  </si>
-  <si>
-    <t>University of British Columbia</t>
-  </si>
-  <si>
-    <t>Université Laval</t>
-  </si>
-  <si>
-    <t>女王大学</t>
-  </si>
-  <si>
-    <t>Queen's University</t>
-  </si>
-  <si>
-    <t>McMaster University</t>
-  </si>
-  <si>
-    <t>滑铁卢大学</t>
-  </si>
-  <si>
-    <t>University of Waterloo</t>
-  </si>
-  <si>
-    <t>阿尔伯塔大学</t>
-  </si>
-  <si>
-    <t>University of Alberta</t>
-  </si>
-  <si>
-    <t>Dalhousie University</t>
-  </si>
-  <si>
-    <t>University of Ottawa</t>
-  </si>
-  <si>
-    <t>韦仕敦大学</t>
-  </si>
-  <si>
-    <t>Western University</t>
-  </si>
-  <si>
-    <t>University of Manitoba</t>
-  </si>
-  <si>
-    <t>University of Saskatchewan</t>
-  </si>
-  <si>
-    <t>卡尔加里大学</t>
-  </si>
-  <si>
-    <t>University of Calgary</t>
-  </si>
-  <si>
-    <t>蒙特利尔大学</t>
-  </si>
-  <si>
-    <t>Université de Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,13 +1210,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Var(--font-family-sans-narrow)"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -832,20 +1217,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -859,6 +1230,32 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--font-family-sans-narrow)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -924,11 +1321,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,23 +1353,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1291,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1318,13 +1724,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1332,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1398,7 +1804,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1444,13 +1850,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1467,16 +1873,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1490,13 +1896,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1513,10 +1919,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1536,10 +1942,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1559,10 +1965,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1582,10 +1988,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1605,16 +2011,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1628,10 +2034,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1651,13 +2057,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1674,10 +2080,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1694,13 +2100,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1717,10 +2123,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1740,16 +2146,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1760,13 +2166,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1789,7 +2195,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1803,16 +2209,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1">
@@ -1823,10 +2229,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" thickBot="1">
@@ -1837,10 +2243,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1852,10 +2258,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" thickBot="1">
@@ -1863,10 +2269,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
@@ -1891,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -1905,10 +2311,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
@@ -1919,10 +2325,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="7">
         <v>8</v>
@@ -1933,10 +2339,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
@@ -1947,10 +2353,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
@@ -1961,10 +2367,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="6">
         <v>11</v>
@@ -1975,10 +2381,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="7">
         <v>12</v>
@@ -1989,10 +2395,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
@@ -2003,10 +2409,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="7">
         <v>14</v>
@@ -2017,10 +2423,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D16" s="6">
         <v>15</v>
@@ -2031,13 +2437,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" thickBot="1">
@@ -2045,13 +2451,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" thickBot="1">
@@ -2059,10 +2465,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
       </c>
       <c r="D19" s="7">
         <v>18</v>
@@ -2073,10 +2479,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6">
         <v>19</v>
@@ -2087,13 +2493,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.5" thickBot="1">
@@ -2101,13 +2507,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1">
@@ -2115,13 +2521,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2137,490 +2543,973 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724104B-C0F9-4F48-9791-898B1DFC265E}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="1" max="3" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.5">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5">
+      <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5">
+      <c r="A12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.5">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.5">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5">
+      <c r="A18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.5">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.5">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.5">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.5">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.5">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29">
+      <c r="A25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.5">
+      <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.5">
+      <c r="A27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.5">
+      <c r="A28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.5">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.5">
+      <c r="A30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.5">
+      <c r="A31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.5">
+      <c r="A32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29">
+      <c r="A33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.5">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.5">
+      <c r="A35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.5">
+      <c r="A36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.5">
+      <c r="A37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="29">
+      <c r="A38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.5">
+      <c r="A39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.5">
+      <c r="A40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.5">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.5">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.5">
+      <c r="A43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.5">
+      <c r="A44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.5">
+      <c r="A45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.5">
+      <c r="A46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.5">
+      <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.5">
+      <c r="A48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.5">
+      <c r="A49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.5">
+      <c r="A50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.5">
+      <c r="B51" s="15"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A55" r:id="rId1" xr:uid="{F63CF591-1D46-49E3-98C8-44154CFB36BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDE03C1-283B-4653-97BF-A95C55EA2313}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="3" width="18.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5">
-      <c r="A2" s="2">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20">
+      <c r="A8" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5">
-      <c r="A10" s="2">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5">
-      <c r="A11" s="2">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5">
-      <c r="A12" s="2">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.5">
-      <c r="A13" s="2">
+    </row>
+    <row r="13" spans="1:4" ht="20">
+      <c r="A13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.5">
-      <c r="A14" s="2">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5">
-      <c r="A15" s="2">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.5">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.5">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.5">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.5">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.5">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.5">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.5">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.5">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.5">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.5">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.5">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.5">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.5">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.5">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.5">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.5">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.5">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.5">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.5">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.5">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.5">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.5">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.5">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.5">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.5">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.5">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.5">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.5">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.5">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.5">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.5">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.5">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.5">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.5">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.5">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="13">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2629,46 +3518,368 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD5113D-CFD7-456F-9FE6-6A0BC8664B8F}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.5">
+      <c r="A2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.5">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.5">
+      <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.5">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.5">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29">
+      <c r="A11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.5">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.5">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.5">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.5">
+      <c r="A16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.5">
+      <c r="A19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.5">
+      <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29">
+      <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2EA83-C696-4901-83BF-02B4FA7DA644}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="42.58203125" customWidth="1"/>
-    <col min="4" max="4" width="45.75" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="40.9140625" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5">
+        <v>241</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.5">
       <c r="A2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="9">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2681,18 +3892,21 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.5">
       <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="9">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2705,18 +3919,21 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="29">
       <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2729,18 +3946,21 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.5">
       <c r="A5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2753,18 +3973,21 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.5">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2777,18 +4000,21 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.5">
       <c r="A7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="9">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2801,18 +4027,21 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.5">
       <c r="A8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="9">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2825,18 +4054,21 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.5">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.5">
       <c r="A9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2849,18 +4081,21 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.5">
       <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="9">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2873,18 +4108,21 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.5">
       <c r="A11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="9">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2897,18 +4135,21 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.5">
       <c r="A12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="9">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2921,18 +4162,21 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.5">
       <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="9">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2945,18 +4189,21 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.5">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.5">
       <c r="A14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2969,18 +4216,21 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.5">
       <c r="A15" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="9">
+        <v>149</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2993,18 +4243,21 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.5">
       <c r="A16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="9">
+        <v>151</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3017,17 +4270,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{3769C07A-330A-46F5-9A5D-09B1A913B01A}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{3769C07A-330A-46F5-9A5D-09B1A913B01A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE3037-B7B8-48FB-9E35-A9F6D1E4F225}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -3042,131 +4296,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="11" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A4" s="14" t="s">
+    <row r="12" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A5" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="13" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A6" s="14" t="s">
+    <row r="14" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="14" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A15" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A8" s="14" t="s">
+    <row r="16" spans="1:2" ht="14.5" thickBot="1">
+      <c r="A16" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A9" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A10" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A11" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A12" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A13" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A14" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A16" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A40AEE7-BB09-4932-B3B1-B25FA36267E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A52E2-28E5-413C-855B-0CCAD7DA21FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
     <sheet name="数学" sheetId="3" r:id="rId2"/>
-    <sheet name="声誉排行" sheetId="2" r:id="rId3"/>
+    <sheet name="声誉2023" sheetId="2" r:id="rId3"/>
     <sheet name="综合类" sheetId="6" r:id="rId4"/>
     <sheet name="基础类" sheetId="7" r:id="rId5"/>
-    <sheet name="医博类" sheetId="4" r:id="rId6"/>
-    <sheet name="U15联盟" sheetId="5" r:id="rId7"/>
+    <sheet name="声誉2024" sheetId="8" r:id="rId6"/>
+    <sheet name="医博类" sheetId="4" r:id="rId7"/>
+    <sheet name="U15联盟" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="334">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1154,6 +1155,60 @@
   <si>
     <t>https://education.macleans.ca/university-rankings/canadas-best-universities-by-reputation-rankings-2023/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Guelph</t>
+  </si>
+  <si>
+    <t>Carleton</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>英属哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>西蒙菲莎大学</t>
+  </si>
+  <si>
+    <t>多伦多城市大学</t>
+  </si>
+  <si>
+    <t>蒙特利尔大学蒙特利尔分校</t>
+  </si>
+  <si>
+    <t>威尔弗里德·劳雷尔大学</t>
+  </si>
+  <si>
+    <t>阿尔伯特王子山大学</t>
+  </si>
+  <si>
+    <t>安大略理工大学</t>
+  </si>
+  <si>
+    <t>圣弗朗西斯泽维尔大学</t>
+  </si>
+  <si>
+    <t>University of St. Thomas</t>
+  </si>
+  <si>
+    <t>布里多尼岬大学</t>
+  </si>
+  <si>
+    <t>布兰顿大学</t>
+  </si>
+  <si>
+    <t>Algoma University</t>
+  </si>
+  <si>
+    <t>阿尔戈玛大学</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,6 +1434,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1698,7 +1756,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2543,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724104B-C0F9-4F48-9791-898B1DFC265E}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3522,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD5113D-CFD7-456F-9FE6-6A0BC8664B8F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
@@ -3834,6 +3892,741 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72001543-3D99-4E5F-8004-79FDAB284806}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20">
+      <c r="A26" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20">
+      <c r="A27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20">
+      <c r="A28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20">
+      <c r="A37" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20">
+      <c r="A39" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D50" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="12">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2EA83-C696-4901-83BF-02B4FA7DA644}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -4281,7 +5074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE3037-B7B8-48FB-9E35-A9F6D1E4F225}">
   <dimension ref="A1:B16"/>
   <sheetViews>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A52E2-28E5-413C-855B-0CCAD7DA21FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C799D29-A9B2-496C-A2ED-A6D4B2B23512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
@@ -2252,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1348E6CB-E3E5-4589-B786-78B52A7FC6EF}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3895,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72001543-3D99-4E5F-8004-79FDAB284806}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4631,7 +4631,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C799D29-A9B2-496C-A2ED-A6D4B2B23512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA773AA-AB07-4691-B9A1-99D9726E54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="340">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,13 +1209,37 @@
   </si>
   <si>
     <t>阿尔戈玛大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manitoba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto Metropolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1336,12 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1380,7 +1410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,6 +1466,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1755,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2252,7 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1348E6CB-E3E5-4589-B786-78B52A7FC6EF}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3893,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72001543-3D99-4E5F-8004-79FDAB284806}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3904,9 +3937,10 @@
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>310</v>
       </c>
@@ -3920,7 +3954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>61</v>
       </c>
@@ -3933,8 +3967,9 @@
       <c r="D2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>63</v>
       </c>
@@ -3948,7 +3983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
         <v>62</v>
       </c>
@@ -3962,7 +3997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>64</v>
       </c>
@@ -3976,7 +4011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
         <v>137</v>
       </c>
@@ -3990,7 +4025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
         <v>65</v>
       </c>
@@ -4003,8 +4038,11 @@
       <c r="D7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
         <v>66</v>
       </c>
@@ -4018,7 +4056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
         <v>138</v>
       </c>
@@ -4032,7 +4070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>67</v>
       </c>
@@ -4046,7 +4084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="18" t="s">
         <v>70</v>
       </c>
@@ -4060,7 +4098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="18" t="s">
         <v>68</v>
       </c>
@@ -4074,7 +4112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="18" t="s">
         <v>72</v>
       </c>
@@ -4087,8 +4125,11 @@
       <c r="D13" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
         <v>316</v>
       </c>
@@ -4102,7 +4143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
@@ -4116,7 +4157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="18" t="s">
         <v>71</v>
       </c>
@@ -4145,8 +4186,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>76</v>
+      <c r="A18" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>244</v>
@@ -4187,8 +4228,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18" t="s">
-        <v>75</v>
+      <c r="A21" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>302</v>
@@ -4201,8 +4242,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18" t="s">
-        <v>77</v>
+      <c r="A22" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>77</v>
@@ -4216,7 +4257,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>79</v>
@@ -4230,7 +4271,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>318</v>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA773AA-AB07-4691-B9A1-99D9726E54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCACCC66-C108-4259-B2E9-2AF38DCFBB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="367">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女皇大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>渥太华大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,10 +542,6 @@
     <t>Calgary</t>
   </si>
   <si>
-    <t>https://education.macleans.ca/feature/canadas-best-medical-doctoral-universities-rankings-2024/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Manitoba</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,621 +609,741 @@
     <t>Université Laval</t>
   </si>
   <si>
+    <t>Queen's University</t>
+  </si>
+  <si>
+    <t>McMaster University</t>
+  </si>
+  <si>
+    <t>滑铁卢大学</t>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+  </si>
+  <si>
+    <t>阿尔伯塔大学</t>
+  </si>
+  <si>
+    <t>University of Alberta</t>
+  </si>
+  <si>
+    <t>Dalhousie University</t>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+  </si>
+  <si>
+    <t>Western University</t>
+  </si>
+  <si>
+    <t>University of Manitoba</t>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
+  </si>
+  <si>
+    <t>卡尔加里大学</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+  </si>
+  <si>
+    <t>蒙特利尔大学</t>
+  </si>
+  <si>
+    <t>Université de Montréal</t>
+  </si>
+  <si>
+    <t>Simon Fraser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">西蒙菲莎大学	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙菲莎大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victoria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维多利亚大学</t>
+  </si>
+  <si>
+    <t>圭尔夫大学</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽芬兰纪念大学</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concordia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康考迪亚大学</t>
+  </si>
+  <si>
+    <t>Toronto Metropolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多伦多都会大学</t>
+  </si>
+  <si>
+    <t>Wilfrid Laurier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特利尔魁北克大学</t>
+  </si>
+  <si>
+    <t>Brock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁克大学</t>
+  </si>
+  <si>
+    <t>Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里贾纳大学</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温莎大学</t>
+  </si>
+  <si>
+    <t>Algoma</t>
+  </si>
+  <si>
+    <t>Mount Allison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+  </si>
+  <si>
+    <t>艾蒙森山大学</t>
+  </si>
+  <si>
+    <t>University of Northern British Columbia</t>
+  </si>
+  <si>
+    <t>北不列颠哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>Saint Mary's University</t>
+  </si>
+  <si>
+    <t>圣玛丽大学</t>
+  </si>
+  <si>
+    <t>Bishop's University</t>
+  </si>
+  <si>
+    <t>主教大学</t>
+  </si>
+  <si>
+    <t>Acadia University</t>
+  </si>
+  <si>
+    <t>阿卡迪亚大学</t>
+  </si>
+  <si>
+    <t>University of Lethbridge</t>
+  </si>
+  <si>
+    <t>莱斯布里奇大学</t>
+  </si>
+  <si>
+    <t>Trent University</t>
+  </si>
+  <si>
+    <t>特伦特大学</t>
+  </si>
+  <si>
+    <t>Ontario Tech University</t>
+  </si>
+  <si>
+    <t>安大略科技大学</t>
+  </si>
+  <si>
+    <t>St. Francis Xavier University</t>
+  </si>
+  <si>
+    <t>圣方济各泽维尔大学</t>
+  </si>
+  <si>
+    <t>University of Prince Edward Island</t>
+  </si>
+  <si>
+    <t>爱德华王子岛大学</t>
+  </si>
+  <si>
+    <t>Lakehead University</t>
+  </si>
+  <si>
+    <t>湖首大学</t>
+  </si>
+  <si>
+    <t>Université de Moncton</t>
+  </si>
+  <si>
+    <t>蒙克顿大学</t>
+  </si>
+  <si>
+    <t>St. Thomas University</t>
+  </si>
+  <si>
+    <t>圣托马斯大学</t>
+  </si>
+  <si>
+    <t>University of Winnipeg</t>
+  </si>
+  <si>
+    <t>温尼伯大学</t>
+  </si>
+  <si>
+    <t>Laurentian University</t>
+  </si>
+  <si>
+    <t>拉瓦伦大学</t>
+  </si>
+  <si>
+    <t>Mount Saint Vincent University</t>
+  </si>
+  <si>
+    <t>圣文森特山大学</t>
+  </si>
+  <si>
+    <t>Brandon University</t>
+  </si>
+  <si>
+    <t>布兰登大学</t>
+  </si>
+  <si>
+    <t>Nipissing University</t>
+  </si>
+  <si>
+    <t>尼皮辛大学</t>
+  </si>
+  <si>
+    <t>Cape Breton University</t>
+  </si>
+  <si>
+    <t>开普布雷顿大学</t>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后大学</t>
+  </si>
+  <si>
+    <t>西安大略大学</t>
+  </si>
+  <si>
+    <t>Université de Sherbrooke</t>
+  </si>
+  <si>
+    <t>舍布鲁克大学</t>
+  </si>
+  <si>
+    <t>不列颠哥伦比亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔伯塔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔加里大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔豪西大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特利尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université de Sherbrooke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾蒙森山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Northern British Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北不列颠哥伦比亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Mary's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣玛丽大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bishop's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acadia University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿卡迪亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Lethbridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱斯布里奇大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trent University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特伦特大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ontario Tech University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安大略科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Francis Xavier University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣方济各泽维尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Prince Edward Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱德华王子岛大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lakehead University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖首大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université de Moncton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙克顿大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Thomas University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣托马斯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Winnipeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温尼伯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laurentian University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉瓦伦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Saint Vincent University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣文森特山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布兰登大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nipissing University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼皮辛大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algoma University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔戈马大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Breton University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开普布雷顿大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+  </si>
+  <si>
+    <t>University of Victoria</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Carleton University</t>
+  </si>
+  <si>
+    <t>University of Guelph</t>
+  </si>
+  <si>
+    <t>Memorial University of Newfoundland</t>
+  </si>
+  <si>
+    <t>University of New Brunswick</t>
+  </si>
+  <si>
+    <t>Concordia University</t>
+  </si>
+  <si>
+    <t>Toronto Metropolitan University</t>
+  </si>
+  <si>
+    <t>Wilfrid Laurier University</t>
+  </si>
+  <si>
+    <t>劳里埃大学</t>
+  </si>
+  <si>
+    <t>Université du Québec à Montréal</t>
+  </si>
+  <si>
+    <t>Brock University</t>
+  </si>
+  <si>
+    <t>University of Regina</t>
+  </si>
+  <si>
+    <t>University of Windsor</t>
+  </si>
+  <si>
+    <t>达尔豪斯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医博排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合类排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://education.macleans.ca/university-rankings/canadas-best-universities-by-reputation-rankings-2023/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Guelph</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>英属哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>西蒙菲莎大学</t>
+  </si>
+  <si>
+    <t>多伦多城市大学</t>
+  </si>
+  <si>
+    <t>蒙特利尔大学蒙特利尔分校</t>
+  </si>
+  <si>
+    <t>威尔弗里德·劳雷尔大学</t>
+  </si>
+  <si>
+    <t>阿尔伯特王子山大学</t>
+  </si>
+  <si>
+    <t>安大略理工大学</t>
+  </si>
+  <si>
+    <t>圣弗朗西斯泽维尔大学</t>
+  </si>
+  <si>
+    <t>University of St. Thomas</t>
+  </si>
+  <si>
+    <t>布里多尼岬大学</t>
+  </si>
+  <si>
+    <t>布兰顿大学</t>
+  </si>
+  <si>
+    <t>Algoma University</t>
+  </si>
+  <si>
+    <t>阿尔戈玛大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto Metropolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Manitoba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carleton University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memorial University of Newfoundland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Université du Québec à Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wilfrid Laurier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wilfrid Laurier University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Allison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ontario Tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Ontario Institute of Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brock University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Mary's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Mary's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windsor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Windsor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acadia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acadia University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Northern British Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trent University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Francis Xavier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Francis Xavier University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bishop's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bishop's University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Prince Edward Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安大略大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>女王大学</t>
-  </si>
-  <si>
-    <t>Queen's University</t>
-  </si>
-  <si>
-    <t>McMaster University</t>
-  </si>
-  <si>
-    <t>滑铁卢大学</t>
-  </si>
-  <si>
-    <t>University of Waterloo</t>
-  </si>
-  <si>
-    <t>阿尔伯塔大学</t>
-  </si>
-  <si>
-    <t>University of Alberta</t>
-  </si>
-  <si>
-    <t>Dalhousie University</t>
-  </si>
-  <si>
-    <t>University of Ottawa</t>
-  </si>
-  <si>
-    <t>韦仕敦大学</t>
-  </si>
-  <si>
-    <t>Western University</t>
-  </si>
-  <si>
-    <t>University of Manitoba</t>
-  </si>
-  <si>
-    <t>University of Saskatchewan</t>
-  </si>
-  <si>
-    <t>卡尔加里大学</t>
-  </si>
-  <si>
-    <t>University of Calgary</t>
-  </si>
-  <si>
-    <t>蒙特利尔大学</t>
-  </si>
-  <si>
-    <t>Université de Montréal</t>
-  </si>
-  <si>
-    <t>Simon Fraser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">西蒙菲莎大学	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙菲莎大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Victoria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维多利亚大学</t>
-  </si>
-  <si>
-    <t>圭尔夫大学</t>
-  </si>
-  <si>
-    <t>Memorial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memorial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纽芬兰纪念大学</t>
-  </si>
-  <si>
-    <t>New Brunswick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Brunswick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concordia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康考迪亚大学</t>
-  </si>
-  <si>
-    <t>Toronto Metropolitan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多伦多都会大学</t>
-  </si>
-  <si>
-    <t>Wilfrid Laurier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UQAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙特利尔魁北克大学</t>
-  </si>
-  <si>
-    <t>Brock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布鲁克大学</t>
-  </si>
-  <si>
-    <t>Regina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里贾纳大学</t>
-  </si>
-  <si>
-    <t>Windsor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温莎大学</t>
-  </si>
-  <si>
-    <t>Algoma</t>
-  </si>
-  <si>
-    <t>Mount Allison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mount Allison University</t>
-  </si>
-  <si>
-    <t>艾蒙森山大学</t>
-  </si>
-  <si>
-    <t>University of Northern British Columbia</t>
-  </si>
-  <si>
-    <t>北不列颠哥伦比亚大学</t>
-  </si>
-  <si>
-    <t>Saint Mary's University</t>
-  </si>
-  <si>
-    <t>圣玛丽大学</t>
-  </si>
-  <si>
-    <t>Bishop's University</t>
-  </si>
-  <si>
-    <t>主教大学</t>
-  </si>
-  <si>
-    <t>Acadia University</t>
-  </si>
-  <si>
-    <t>阿卡迪亚大学</t>
-  </si>
-  <si>
-    <t>University of Lethbridge</t>
-  </si>
-  <si>
-    <t>莱斯布里奇大学</t>
-  </si>
-  <si>
-    <t>Trent University</t>
-  </si>
-  <si>
-    <t>特伦特大学</t>
-  </si>
-  <si>
-    <t>Ontario Tech University</t>
-  </si>
-  <si>
-    <t>安大略科技大学</t>
-  </si>
-  <si>
-    <t>St. Francis Xavier University</t>
-  </si>
-  <si>
-    <t>圣方济各泽维尔大学</t>
-  </si>
-  <si>
-    <t>University of Prince Edward Island</t>
-  </si>
-  <si>
-    <t>爱德华王子岛大学</t>
-  </si>
-  <si>
-    <t>Lakehead University</t>
-  </si>
-  <si>
-    <t>湖首大学</t>
-  </si>
-  <si>
-    <t>Université de Moncton</t>
-  </si>
-  <si>
-    <t>蒙克顿大学</t>
-  </si>
-  <si>
-    <t>St. Thomas University</t>
-  </si>
-  <si>
-    <t>圣托马斯大学</t>
-  </si>
-  <si>
-    <t>University of Winnipeg</t>
-  </si>
-  <si>
-    <t>温尼伯大学</t>
-  </si>
-  <si>
-    <t>Laurentian University</t>
-  </si>
-  <si>
-    <t>拉瓦伦大学</t>
-  </si>
-  <si>
-    <t>Mount Saint Vincent University</t>
-  </si>
-  <si>
-    <t>圣文森特山大学</t>
-  </si>
-  <si>
-    <t>Brandon University</t>
-  </si>
-  <si>
-    <t>布兰登大学</t>
-  </si>
-  <si>
-    <t>Nipissing University</t>
-  </si>
-  <si>
-    <t>尼皮辛大学</t>
-  </si>
-  <si>
-    <t>Cape Breton University</t>
-  </si>
-  <si>
-    <t>开普布雷顿大学</t>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后大学</t>
-  </si>
-  <si>
-    <t>西安大略大学</t>
-  </si>
-  <si>
-    <t>Université de Sherbrooke</t>
-  </si>
-  <si>
-    <t>舍布鲁克大学</t>
-  </si>
-  <si>
-    <t>不列颠哥伦比亚大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尔伯塔大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔加里大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达尔豪西大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙特利尔大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Université de Sherbrooke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Saskatchewan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mount Allison University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾蒙森山大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Northern British Columbia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北不列颠哥伦比亚大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saint Mary's University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣玛丽大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bishop's University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主教大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acadia University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿卡迪亚大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Lethbridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱斯布里奇大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trent University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特伦特大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ontario Tech University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安大略科技大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>St. Francis Xavier University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣方济各泽维尔大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Prince Edward Island</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱德华王子岛大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lakehead University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖首大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Université de Moncton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙克顿大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>St. Thomas University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣托马斯大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Winnipeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温尼伯大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laurentian University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉瓦伦大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mount Saint Vincent University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣文森特山大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brandon University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布兰登大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nipissing University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼皮辛大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algoma University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尔戈马大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cape Breton University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开普布雷顿大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simon Fraser University</t>
-  </si>
-  <si>
-    <t>University of Victoria</t>
-  </si>
-  <si>
-    <t>York University</t>
-  </si>
-  <si>
-    <t>Carleton University</t>
-  </si>
-  <si>
-    <t>University of Guelph</t>
-  </si>
-  <si>
-    <t>Memorial University of Newfoundland</t>
-  </si>
-  <si>
-    <t>University of New Brunswick</t>
-  </si>
-  <si>
-    <t>Concordia University</t>
-  </si>
-  <si>
-    <t>Toronto Metropolitan University</t>
-  </si>
-  <si>
-    <t>Wilfrid Laurier University</t>
-  </si>
-  <si>
-    <t>劳里埃大学</t>
-  </si>
-  <si>
-    <t>Université du Québec à Montréal</t>
-  </si>
-  <si>
-    <t>Brock University</t>
-  </si>
-  <si>
-    <t>University of Regina</t>
-  </si>
-  <si>
-    <t>University of Windsor</t>
-  </si>
-  <si>
-    <t>达尔豪斯大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文全称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医博排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合类排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://education.macleans.ca/university-rankings/canadas-best-universities-by-reputation-rankings-2023/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laval</t>
-  </si>
-  <si>
-    <t>Guelph</t>
-  </si>
-  <si>
-    <t>Carleton</t>
-  </si>
-  <si>
-    <t>Memorial</t>
-  </si>
-  <si>
-    <t>New Brunswick</t>
-  </si>
-  <si>
-    <t>英属哥伦比亚大学</t>
-  </si>
-  <si>
-    <t>西蒙菲莎大学</t>
-  </si>
-  <si>
-    <t>多伦多城市大学</t>
-  </si>
-  <si>
-    <t>蒙特利尔大学蒙特利尔分校</t>
-  </si>
-  <si>
-    <t>威尔弗里德·劳雷尔大学</t>
-  </si>
-  <si>
-    <t>阿尔伯特王子山大学</t>
-  </si>
-  <si>
-    <t>安大略理工大学</t>
-  </si>
-  <si>
-    <t>圣弗朗西斯泽维尔大学</t>
-  </si>
-  <si>
-    <t>University of St. Thomas</t>
-  </si>
-  <si>
-    <t>布里多尼岬大学</t>
-  </si>
-  <si>
-    <t>布兰顿大学</t>
-  </si>
-  <si>
-    <t>Algoma University</t>
-  </si>
-  <si>
-    <t>阿尔戈玛大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sherbrooke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manitoba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saskatchewan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toronto Metropolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女王大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,7 +1351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,6 +1454,13 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1410,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,6 +1589,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1788,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D4F82-65ED-466B-857F-9378179266D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1815,13 +1940,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1829,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1895,7 +2020,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1941,13 +2066,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2033,7 +2158,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -2056,10 +2181,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -2079,10 +2204,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2102,16 +2227,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -2125,10 +2250,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2148,13 +2273,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -2171,10 +2296,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2191,13 +2316,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -2214,10 +2339,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2237,13 +2362,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2257,13 +2382,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -2285,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1348E6CB-E3E5-4589-B786-78B52A7FC6EF}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2300,16 +2425,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1">
@@ -2320,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" thickBot="1">
@@ -2334,10 +2459,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -2349,10 +2474,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" thickBot="1">
@@ -2360,10 +2485,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
@@ -2388,10 +2513,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -2405,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
@@ -2416,10 +2541,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
       </c>
       <c r="D9" s="7">
         <v>8</v>
@@ -2430,10 +2555,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
@@ -2444,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
@@ -2461,7 +2586,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="6">
         <v>11</v>
@@ -2475,7 +2600,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
         <v>12</v>
@@ -2486,10 +2611,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
@@ -2500,10 +2625,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="7">
         <v>14</v>
@@ -2514,10 +2639,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="6">
         <v>15</v>
@@ -2528,13 +2653,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" thickBot="1">
@@ -2542,13 +2667,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" thickBot="1">
@@ -2556,10 +2681,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="7">
         <v>18</v>
@@ -2570,10 +2695,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6">
         <v>19</v>
@@ -2584,13 +2709,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.5" thickBot="1">
@@ -2598,13 +2723,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1">
@@ -2612,13 +2737,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2634,7 +2759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724104B-C0F9-4F48-9791-898B1DFC265E}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2646,27 +2771,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.5">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2675,13 +2800,13 @@
     </row>
     <row r="3" spans="1:5" ht="14.5">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -2689,13 +2814,13 @@
     </row>
     <row r="4" spans="1:5" ht="14.5">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -2703,7 +2828,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.5">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -2717,13 +2842,13 @@
     </row>
     <row r="6" spans="1:5" ht="14.5">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -2731,13 +2856,13 @@
     </row>
     <row r="7" spans="1:5" ht="14.5">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -2745,13 +2870,13 @@
     </row>
     <row r="8" spans="1:5" ht="14.5">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -2759,13 +2884,13 @@
     </row>
     <row r="9" spans="1:5" ht="14.5">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -2773,13 +2898,13 @@
     </row>
     <row r="10" spans="1:5" ht="14.5">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -2787,13 +2912,13 @@
     </row>
     <row r="11" spans="1:5" ht="14.5">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -2801,13 +2926,13 @@
     </row>
     <row r="12" spans="1:5" ht="14.5">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
@@ -2815,13 +2940,13 @@
     </row>
     <row r="13" spans="1:5" ht="14.5">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -2829,13 +2954,13 @@
     </row>
     <row r="14" spans="1:5" ht="14.5">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -2843,13 +2968,13 @@
     </row>
     <row r="15" spans="1:5" ht="14.5">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -2857,13 +2982,13 @@
     </row>
     <row r="16" spans="1:5" ht="14.5">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
@@ -2871,13 +2996,13 @@
     </row>
     <row r="17" spans="1:4" ht="14.5">
       <c r="A17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -2885,13 +3010,13 @@
     </row>
     <row r="18" spans="1:4" ht="14.5">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2">
         <v>17</v>
@@ -2899,13 +3024,13 @@
     </row>
     <row r="19" spans="1:4" ht="14.5">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2">
         <v>18</v>
@@ -2913,13 +3038,13 @@
     </row>
     <row r="20" spans="1:4" ht="14.5">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -2927,13 +3052,13 @@
     </row>
     <row r="21" spans="1:4" ht="14.5">
       <c r="A21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
@@ -2941,13 +3066,13 @@
     </row>
     <row r="22" spans="1:4" ht="14.5">
       <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D22" s="2">
         <v>21</v>
@@ -2955,13 +3080,13 @@
     </row>
     <row r="23" spans="1:4" ht="14.5">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -2969,13 +3094,13 @@
     </row>
     <row r="24" spans="1:4" ht="14.5">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D24" s="2">
         <v>23</v>
@@ -2983,13 +3108,13 @@
     </row>
     <row r="25" spans="1:4" ht="29">
       <c r="A25" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2">
         <v>24</v>
@@ -2997,13 +3122,13 @@
     </row>
     <row r="26" spans="1:4" ht="14.5">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
@@ -3011,13 +3136,13 @@
     </row>
     <row r="27" spans="1:4" ht="14.5">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D27" s="2">
         <v>26</v>
@@ -3025,13 +3150,13 @@
     </row>
     <row r="28" spans="1:4" ht="14.5">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D28" s="2">
         <v>27</v>
@@ -3039,13 +3164,13 @@
     </row>
     <row r="29" spans="1:4" ht="14.5">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
@@ -3053,13 +3178,13 @@
     </row>
     <row r="30" spans="1:4" ht="14.5">
       <c r="A30" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2">
         <v>29</v>
@@ -3067,13 +3192,13 @@
     </row>
     <row r="31" spans="1:4" ht="14.5">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D31" s="2">
         <v>30</v>
@@ -3081,13 +3206,13 @@
     </row>
     <row r="32" spans="1:4" ht="14.5">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
@@ -3095,13 +3220,13 @@
     </row>
     <row r="33" spans="1:4" ht="29">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D33" s="2">
         <v>32</v>
@@ -3109,13 +3234,13 @@
     </row>
     <row r="34" spans="1:4" ht="14.5">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D34" s="2">
         <v>33</v>
@@ -3123,13 +3248,13 @@
     </row>
     <row r="35" spans="1:4" ht="14.5">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -3137,13 +3262,13 @@
     </row>
     <row r="36" spans="1:4" ht="14.5">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D36" s="2">
         <v>35</v>
@@ -3151,13 +3276,13 @@
     </row>
     <row r="37" spans="1:4" ht="14.5">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D37" s="2">
         <v>36</v>
@@ -3165,13 +3290,13 @@
     </row>
     <row r="38" spans="1:4" ht="29">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
@@ -3179,13 +3304,13 @@
     </row>
     <row r="39" spans="1:4" ht="14.5">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D39" s="2">
         <v>38</v>
@@ -3193,13 +3318,13 @@
     </row>
     <row r="40" spans="1:4" ht="14.5">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D40" s="2">
         <v>39</v>
@@ -3207,13 +3332,13 @@
     </row>
     <row r="41" spans="1:4" ht="14.5">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
@@ -3221,13 +3346,13 @@
     </row>
     <row r="42" spans="1:4" ht="14.5">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D42" s="2">
         <v>41</v>
@@ -3235,13 +3360,13 @@
     </row>
     <row r="43" spans="1:4" ht="14.5">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D43" s="2">
         <v>42</v>
@@ -3249,13 +3374,13 @@
     </row>
     <row r="44" spans="1:4" ht="14.5">
       <c r="A44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
@@ -3263,13 +3388,13 @@
     </row>
     <row r="45" spans="1:4" ht="14.5">
       <c r="A45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D45" s="2">
         <v>44</v>
@@ -3277,13 +3402,13 @@
     </row>
     <row r="46" spans="1:4" ht="14.5">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D46" s="2">
         <v>45</v>
@@ -3291,13 +3416,13 @@
     </row>
     <row r="47" spans="1:4" ht="14.5">
       <c r="A47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
@@ -3305,13 +3430,13 @@
     </row>
     <row r="48" spans="1:4" ht="14.5">
       <c r="A48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D48" s="2">
         <v>47</v>
@@ -3319,13 +3444,13 @@
     </row>
     <row r="49" spans="1:4" ht="14.5">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D49" s="2">
         <v>48</v>
@@ -3333,13 +3458,13 @@
     </row>
     <row r="50" spans="1:4" ht="14.5">
       <c r="A50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
@@ -3351,10 +3476,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3381,27 +3506,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
@@ -3409,13 +3534,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D3" s="13">
         <v>2</v>
@@ -3423,13 +3548,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" s="13">
         <v>3</v>
@@ -3437,13 +3562,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="13">
         <v>4</v>
@@ -3451,13 +3576,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="D6" s="13">
         <v>5</v>
@@ -3465,13 +3590,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -3479,13 +3604,13 @@
     </row>
     <row r="8" spans="1:4" ht="20">
       <c r="A8" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D8" s="13">
         <v>7</v>
@@ -3493,13 +3618,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="13">
         <v>8</v>
@@ -3507,13 +3632,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D10" s="13">
         <v>9</v>
@@ -3521,13 +3646,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D11" s="13">
         <v>10</v>
@@ -3535,13 +3660,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D12" s="13">
         <v>11</v>
@@ -3549,13 +3674,13 @@
     </row>
     <row r="13" spans="1:4" ht="20">
       <c r="A13" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D13" s="13">
         <v>12</v>
@@ -3563,13 +3688,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D14" s="13">
         <v>13</v>
@@ -3577,13 +3702,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D15" s="13">
         <v>14</v>
@@ -3591,13 +3716,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D16" s="13">
         <v>14</v>
@@ -3613,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD5113D-CFD7-456F-9FE6-6A0BC8664B8F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
@@ -3626,27 +3751,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3654,13 +3779,13 @@
     </row>
     <row r="3" spans="1:4" ht="29">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -3668,13 +3793,13 @@
     </row>
     <row r="4" spans="1:4" ht="14.5">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -3682,13 +3807,13 @@
     </row>
     <row r="5" spans="1:4" ht="14.5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3696,13 +3821,13 @@
     </row>
     <row r="6" spans="1:4" ht="14.5">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -3710,13 +3835,13 @@
     </row>
     <row r="7" spans="1:4" ht="29">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -3724,13 +3849,13 @@
     </row>
     <row r="8" spans="1:4" ht="14.5">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3738,13 +3863,13 @@
     </row>
     <row r="9" spans="1:4" ht="29">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -3752,13 +3877,13 @@
     </row>
     <row r="10" spans="1:4" ht="29">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -3766,13 +3891,13 @@
     </row>
     <row r="11" spans="1:4" ht="29">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -3780,13 +3905,13 @@
     </row>
     <row r="12" spans="1:4" ht="14.5">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
@@ -3794,13 +3919,13 @@
     </row>
     <row r="13" spans="1:4" ht="14.5">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -3808,13 +3933,13 @@
     </row>
     <row r="14" spans="1:4" ht="14.5">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D14" s="2">
         <v>12</v>
@@ -3822,13 +3947,13 @@
     </row>
     <row r="15" spans="1:4" ht="14.5">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -3836,13 +3961,13 @@
     </row>
     <row r="16" spans="1:4" ht="14.5">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
@@ -3850,13 +3975,13 @@
     </row>
     <row r="17" spans="1:4" ht="29">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -3864,13 +3989,13 @@
     </row>
     <row r="18" spans="1:4" ht="14.5">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D18" s="2">
         <v>17</v>
@@ -3878,13 +4003,13 @@
     </row>
     <row r="19" spans="1:4" ht="14.5">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D19" s="2">
         <v>18</v>
@@ -3892,13 +4017,13 @@
     </row>
     <row r="20" spans="1:4" ht="14.5">
       <c r="A20" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -3906,13 +4031,13 @@
     </row>
     <row r="21" spans="1:4" ht="29">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
@@ -3928,41 +4053,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72001543-3D99-4E5F-8004-79FDAB284806}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="19.9140625" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
@@ -3971,13 +4096,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D3" s="12">
         <v>2</v>
@@ -3985,13 +4110,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" s="12">
         <v>3</v>
@@ -3999,7 +4124,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>11</v>
@@ -4013,13 +4138,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="12">
         <v>5</v>
@@ -4027,30 +4152,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>242</v>
+        <v>158</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="D7" s="12">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8" s="12">
         <v>7</v>
@@ -4058,13 +4183,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D9" s="12">
         <v>8</v>
@@ -4072,13 +4197,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D10" s="12">
         <v>9</v>
@@ -4086,13 +4211,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D11" s="12">
         <v>10</v>
@@ -4100,13 +4225,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D12" s="12">
         <v>11</v>
@@ -4114,30 +4239,30 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="12">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="12">
         <v>13</v>
@@ -4145,13 +4270,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D15" s="12">
         <v>14</v>
@@ -4159,13 +4284,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="12">
         <v>15</v>
@@ -4173,13 +4298,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D17" s="12">
         <v>16</v>
@@ -4187,13 +4312,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="19" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D18" s="12">
         <v>17</v>
@@ -4201,13 +4326,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D19" s="12">
         <v>18</v>
@@ -4215,13 +4340,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="12">
         <v>19</v>
@@ -4229,13 +4354,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="19" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D21" s="12">
         <v>20</v>
@@ -4243,13 +4368,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="19" t="s">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" s="12">
         <v>21</v>
@@ -4257,13 +4382,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D23" s="12">
         <v>22</v>
@@ -4271,13 +4396,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="12">
         <v>23</v>
@@ -4285,55 +4410,55 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D25" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20">
+    <row r="26" spans="1:4">
       <c r="A26" s="18" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D26" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D27" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20">
+    <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D28" s="12">
         <v>27</v>
@@ -4341,27 +4466,27 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="20">
       <c r="A30" s="18" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D30" s="12">
         <v>29</v>
@@ -4369,13 +4494,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="18" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D31" s="12">
         <v>30</v>
@@ -4383,13 +4508,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="18" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>89</v>
+        <v>347</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D32" s="12">
         <v>31</v>
@@ -4397,13 +4522,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="18" t="s">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D33" s="12">
         <v>32</v>
@@ -4411,13 +4536,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D34" s="12">
         <v>33</v>
@@ -4425,13 +4550,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D35" s="12">
         <v>34</v>
@@ -4439,27 +4564,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>86</v>
+        <v>353</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D36" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20">
+    <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
-        <v>85</v>
+        <v>354</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D37" s="12">
         <v>36</v>
@@ -4467,27 +4592,27 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
-        <v>83</v>
+        <v>356</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D38" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
-        <v>87</v>
+        <v>358</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>87</v>
+        <v>359</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D39" s="12">
         <v>38</v>
@@ -4495,13 +4620,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>95</v>
+        <v>361</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D40" s="12">
         <v>39</v>
@@ -4509,13 +4634,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="18" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D41" s="12">
         <v>40</v>
@@ -4523,13 +4648,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D42" s="12">
         <v>41</v>
@@ -4537,13 +4662,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D43" s="12">
         <v>42</v>
@@ -4551,13 +4676,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D44" s="12">
         <v>43</v>
@@ -4565,13 +4690,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D45" s="12">
         <v>44</v>
@@ -4579,13 +4704,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D46" s="12">
         <v>45</v>
@@ -4593,13 +4718,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D47" s="12">
         <v>46</v>
@@ -4607,13 +4732,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D48" s="12">
         <v>47</v>
@@ -4621,13 +4746,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D49" s="12">
         <v>48</v>
@@ -4635,13 +4760,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D50" s="12">
         <v>49</v>
@@ -4649,13 +4774,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D51" s="12">
         <v>50</v>
@@ -4671,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2EA83-C696-4901-83BF-02B4FA7DA644}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4686,30 +4811,28 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>139</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="14.5">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4730,13 +4853,13 @@
     </row>
     <row r="3" spans="1:17" ht="14.5">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -4757,13 +4880,13 @@
     </row>
     <row r="4" spans="1:17" ht="29">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -4784,13 +4907,13 @@
     </row>
     <row r="5" spans="1:17" ht="14.5">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -4811,13 +4934,13 @@
     </row>
     <row r="6" spans="1:17" ht="14.5">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -4838,13 +4961,13 @@
     </row>
     <row r="7" spans="1:17" ht="14.5">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -4865,13 +4988,13 @@
     </row>
     <row r="8" spans="1:17" ht="14.5">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -4892,13 +5015,13 @@
     </row>
     <row r="9" spans="1:17" ht="14.5">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -4919,13 +5042,13 @@
     </row>
     <row r="10" spans="1:17" ht="14.5">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>124</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -4946,13 +5069,13 @@
     </row>
     <row r="11" spans="1:17" ht="14.5">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -4973,13 +5096,13 @@
     </row>
     <row r="12" spans="1:17" ht="14.5">
       <c r="A12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
@@ -5000,13 +5123,13 @@
     </row>
     <row r="13" spans="1:17" ht="14.5">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -5027,13 +5150,13 @@
     </row>
     <row r="14" spans="1:17" ht="14.5">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -5054,13 +5177,13 @@
     </row>
     <row r="15" spans="1:17" ht="14.5">
       <c r="A15" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -5081,13 +5204,13 @@
     </row>
     <row r="16" spans="1:17" ht="14.5">
       <c r="A16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
@@ -5108,154 +5231,183 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{3769C07A-330A-46F5-9A5D-09B1A913B01A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE3037-B7B8-48FB-9E35-A9F6D1E4F225}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.5" thickBot="1">
+    <row r="1" spans="1:6" ht="14.5" thickBot="1">
       <c r="A1" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" thickBot="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.5" thickBot="1">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A4" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A6" s="11" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="A8" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A7" s="11" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1">
+      <c r="A10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A8" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A9" s="11" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A10" s="11" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A11" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A12" s="11" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="A15" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1">
+      <c r="A16" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A15" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.5" thickBot="1">
-      <c r="A16" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>176</v>
-      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_posts/加拿大计算机专业大学排名.xlsx
+++ b/_posts/加拿大计算机专业大学排名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCACCC66-C108-4259-B2E9-2AF38DCFBB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95CE013-FC3F-403A-88F8-FE6B285442AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="8" xr2:uid="{405E8473-767E-471B-BD21-585DE5773B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机专业" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="声誉2024" sheetId="8" r:id="rId6"/>
     <sheet name="医博类" sheetId="4" r:id="rId7"/>
     <sheet name="U15联盟" sheetId="5" r:id="rId8"/>
+    <sheet name="计算机全球" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="590">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1345,6 +1346,675 @@
   <si>
     <t>女王大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学中文名称</t>
+  </si>
+  <si>
+    <t>大学英文名称</t>
+  </si>
+  <si>
+    <t>大学标签</t>
+  </si>
+  <si>
+    <t>当前排名（取整）</t>
+  </si>
+  <si>
+    <t>麻省理工学院</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology, MIT</t>
+  </si>
+  <si>
+    <t>美国, 北美洲</t>
+  </si>
+  <si>
+    <t>卡内基梅隆大学</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>斯坦福大学</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>加州大学-伯克利</t>
+  </si>
+  <si>
+    <t>University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>牛津大学</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>英国, 欧洲</t>
+  </si>
+  <si>
+    <t>新加坡国立大学</t>
+  </si>
+  <si>
+    <t>National University of Singapore</t>
+  </si>
+  <si>
+    <t>新加坡, 亚洲</t>
+  </si>
+  <si>
+    <t>剑桥大学</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>哈佛大学</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>苏黎世联邦理工学院</t>
+  </si>
+  <si>
+    <t>Swiss Federal Institute of Technology Zurich</t>
+  </si>
+  <si>
+    <t>瑞士, 欧洲</t>
+  </si>
+  <si>
+    <t>洛桑联邦理工学院</t>
+  </si>
+  <si>
+    <t>Swiss Federal Institute of Technology Lausanne</t>
+  </si>
+  <si>
+    <t>南洋理工大学</t>
+  </si>
+  <si>
+    <t>Nanyang Technological University</t>
+  </si>
+  <si>
+    <t>加拿大, 北美洲</t>
+  </si>
+  <si>
+    <t>普林斯顿大学</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>华盛顿大学-西雅图</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <t>Tsinghua University</t>
+  </si>
+  <si>
+    <t>中国, 亚洲</t>
+  </si>
+  <si>
+    <t>帝国理工学院</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>康奈尔大学</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>加州大学-洛杉矶</t>
+  </si>
+  <si>
+    <t>University of California, Los Angeles</t>
+  </si>
+  <si>
+    <t>北京大学</t>
+  </si>
+  <si>
+    <t>Peking University</t>
+  </si>
+  <si>
+    <t>爱丁堡大学</t>
+  </si>
+  <si>
+    <t>The University of Edinburgh</t>
+  </si>
+  <si>
+    <t>哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>伦敦大学学院</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>伊利诺伊大学厄巴纳-香槟分校</t>
+  </si>
+  <si>
+    <t>University of Illinois At Urbana-champaign</t>
+  </si>
+  <si>
+    <t>纽约大学</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+  </si>
+  <si>
+    <t>Shanghai Jiao Tong University</t>
+  </si>
+  <si>
+    <t>佐治亚理工学院</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t>韩国科学技术院</t>
+  </si>
+  <si>
+    <t>Korea Advanced Institute of Science And Technology</t>
+  </si>
+  <si>
+    <t>韩国, 亚洲</t>
+  </si>
+  <si>
+    <t>慕尼黑工业大学</t>
+  </si>
+  <si>
+    <t>Technical University of Munich</t>
+  </si>
+  <si>
+    <t>德国, 欧洲</t>
+  </si>
+  <si>
+    <t>巴黎理工学院</t>
+  </si>
+  <si>
+    <t>Institut Polytechnique De Paris</t>
+  </si>
+  <si>
+    <t>法国, 欧洲</t>
+  </si>
+  <si>
+    <t>首尔国立大学</t>
+  </si>
+  <si>
+    <t>Seoul National University</t>
+  </si>
+  <si>
+    <t>米兰理工大学</t>
+  </si>
+  <si>
+    <t>Polytechnic Institute of Milan</t>
+  </si>
+  <si>
+    <t>意大利, 欧洲</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹大学</t>
+  </si>
+  <si>
+    <t>University of Amsterdam</t>
+  </si>
+  <si>
+    <t>荷兰, 欧洲</t>
+  </si>
+  <si>
+    <t>Mcgill University</t>
+  </si>
+  <si>
+    <t>浙江大学</t>
+  </si>
+  <si>
+    <t>Zhejiang University</t>
+  </si>
+  <si>
+    <t>耶鲁大学</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>德克萨斯州大学-奥斯汀</t>
+  </si>
+  <si>
+    <t>The University of Texas At Austin</t>
+  </si>
+  <si>
+    <t>加州理工学院</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>香港科技大学</t>
+  </si>
+  <si>
+    <t>The Hong Kong University of Science And Technology</t>
+  </si>
+  <si>
+    <t>中国香港, 亚洲</t>
+  </si>
+  <si>
+    <t>萨克雷大学(巴黎第十一大学)</t>
+  </si>
+  <si>
+    <t>Universite Paris Saclay (university of Paris-sud, Paris 11)</t>
+  </si>
+  <si>
+    <t>墨尔本大学</t>
+  </si>
+  <si>
+    <t>The University of Melbourne</t>
+  </si>
+  <si>
+    <t>澳大利亚, 大洋洲</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚大学</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>密歇根大学-安娜堡</t>
+  </si>
+  <si>
+    <t>University of Michigan-ann Arbor</t>
+  </si>
+  <si>
+    <t>加州大学-圣地亚哥</t>
+  </si>
+  <si>
+    <t>University of California, San Diego</t>
+  </si>
+  <si>
+    <t>巴黎文理研究大学</t>
+  </si>
+  <si>
+    <t>Université Psl</t>
+  </si>
+  <si>
+    <t>索邦大学</t>
+  </si>
+  <si>
+    <t>Sorbonne University</t>
+  </si>
+  <si>
+    <t>University of Montreal</t>
+  </si>
+  <si>
+    <t>东京大学</t>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>日本, 亚洲</t>
+  </si>
+  <si>
+    <t>阿卜杜勒阿齐兹国王大学</t>
+  </si>
+  <si>
+    <t>King Abdulaziz University</t>
+  </si>
+  <si>
+    <t>沙特, 亚洲</t>
+  </si>
+  <si>
+    <t>鲁汶大学，佛兰德语</t>
+  </si>
+  <si>
+    <t>Ku Leuven</t>
+  </si>
+  <si>
+    <t>比利时, 欧洲</t>
+  </si>
+  <si>
+    <t>芝加哥大学</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>香港中文大学</t>
+  </si>
+  <si>
+    <t>The Chinese University of Hong Kong</t>
+  </si>
+  <si>
+    <t>代尔夫特理工大学</t>
+  </si>
+  <si>
+    <t>Delft University of Technology</t>
+  </si>
+  <si>
+    <t>南加州大学</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>澳大利亚国立大学</t>
+  </si>
+  <si>
+    <t>The Australian National University</t>
+  </si>
+  <si>
+    <t>悉尼大学</t>
+  </si>
+  <si>
+    <t>The University of Sydney</t>
+  </si>
+  <si>
+    <t>新南威尔士大学</t>
+  </si>
+  <si>
+    <t>The University of New South Wales</t>
+  </si>
+  <si>
+    <t>马里兰大学-大学城</t>
+  </si>
+  <si>
+    <t>University of Maryland, College Park</t>
+  </si>
+  <si>
+    <t>复旦大学</t>
+  </si>
+  <si>
+    <t>Fudan University</t>
+  </si>
+  <si>
+    <t>香港大学</t>
+  </si>
+  <si>
+    <t>The University of Hong Kong</t>
+  </si>
+  <si>
+    <t>皇家理工学院</t>
+  </si>
+  <si>
+    <t>Kth Royal Institute of Technology</t>
+  </si>
+  <si>
+    <t>瑞典, 欧洲</t>
+  </si>
+  <si>
+    <t>伦敦国王学院</t>
+  </si>
+  <si>
+    <t>King's College London</t>
+  </si>
+  <si>
+    <t>莫斯科国立大学</t>
+  </si>
+  <si>
+    <t>Moscow State University</t>
+  </si>
+  <si>
+    <t>俄罗斯, 欧洲</t>
+  </si>
+  <si>
+    <t>曼彻斯特大学</t>
+  </si>
+  <si>
+    <t>The University of Manchester</t>
+  </si>
+  <si>
+    <t>印度理工学院-孟买</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Bombay</t>
+  </si>
+  <si>
+    <t>印度, 亚洲</t>
+  </si>
+  <si>
+    <t>印度理工学院-德里</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Delhi</t>
+  </si>
+  <si>
+    <t>普渡大学-西拉法叶</t>
+  </si>
+  <si>
+    <t>Purdue University, West Lafayette</t>
+  </si>
+  <si>
+    <t>埃因霍温工业大学</t>
+  </si>
+  <si>
+    <t>Eindhoven University of Technology</t>
+  </si>
+  <si>
+    <t>柏林工业大学</t>
+  </si>
+  <si>
+    <t>Technical University of Berlin</t>
+  </si>
+  <si>
+    <t>罗马第一大学</t>
+  </si>
+  <si>
+    <t>Sapienza University of Rome</t>
+  </si>
+  <si>
+    <t>约翰霍普金斯大学</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>悉尼科技大学</t>
+  </si>
+  <si>
+    <t>University of Technology Sydney</t>
+  </si>
+  <si>
+    <t>莫纳什大学</t>
+  </si>
+  <si>
+    <t>Monash University</t>
+  </si>
+  <si>
+    <t>高丽大学</t>
+  </si>
+  <si>
+    <t>Korea University</t>
+  </si>
+  <si>
+    <t>维也纳工业大学</t>
+  </si>
+  <si>
+    <t>Vienna University of Technology</t>
+  </si>
+  <si>
+    <t>奥地利, 欧洲</t>
+  </si>
+  <si>
+    <t>华威大学</t>
+  </si>
+  <si>
+    <t>The University of Warwick</t>
+  </si>
+  <si>
+    <t>浦项理工大学</t>
+  </si>
+  <si>
+    <t>Pohang University of Science And Technology</t>
+  </si>
+  <si>
+    <t>圣彼得堡国立信息技术、机械与光学大学</t>
+  </si>
+  <si>
+    <t>Itmo University</t>
+  </si>
+  <si>
+    <t>台湾大学</t>
+  </si>
+  <si>
+    <t>National Taiwan University</t>
+  </si>
+  <si>
+    <t>中国台湾, 亚洲</t>
+  </si>
+  <si>
+    <t>马来亚大学</t>
+  </si>
+  <si>
+    <t>University of Malaya</t>
+  </si>
+  <si>
+    <t>马来西亚, 亚洲</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚理工大学</t>
+  </si>
+  <si>
+    <t>Polytechnic University of Catalonia</t>
+  </si>
+  <si>
+    <t>西班牙, 欧洲</t>
+  </si>
+  <si>
+    <t>延世大学</t>
+  </si>
+  <si>
+    <t>Yonsei University</t>
+  </si>
+  <si>
+    <t>阿尔托大学</t>
+  </si>
+  <si>
+    <t>Aalto University</t>
+  </si>
+  <si>
+    <t>芬兰, 欧洲</t>
+  </si>
+  <si>
+    <t>杜克大学</t>
+  </si>
+  <si>
+    <t>Duke University</t>
+  </si>
+  <si>
+    <t>圣保罗大学</t>
+  </si>
+  <si>
+    <t>University of Sao Paulo</t>
+  </si>
+  <si>
+    <t>巴西, 南美洲</t>
+  </si>
+  <si>
+    <t>蒙特雷科技大学</t>
+  </si>
+  <si>
+    <t>Tecnológico De Monterrey</t>
+  </si>
+  <si>
+    <t>墨西哥, 南美洲</t>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+  </si>
+  <si>
+    <t>University of Science And Technology of China</t>
+  </si>
+  <si>
+    <t>博洛尼亚大学</t>
+  </si>
+  <si>
+    <t>University of Bologna</t>
+  </si>
+  <si>
+    <t>亚琛工业大学</t>
+  </si>
+  <si>
+    <t>Rwth Aachen University</t>
+  </si>
+  <si>
+    <t>威斯康星大学-麦迪逊</t>
+  </si>
+  <si>
+    <t>University of Wisconsin, Madison</t>
+  </si>
+  <si>
+    <t>都柏林三一学院</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>爱尔兰, 欧洲</t>
+  </si>
+  <si>
+    <t>慕尼黑大学</t>
+  </si>
+  <si>
+    <t>University of Munich</t>
+  </si>
+  <si>
+    <t>印度理工学院-卡哈拉格普尔</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Kharagpur</t>
+  </si>
+  <si>
+    <t>华中科技大学</t>
+  </si>
+  <si>
+    <t>Huazhong University of Science And Technology</t>
+  </si>
+  <si>
+    <t>加州大学-欧文</t>
+  </si>
+  <si>
+    <t>University of California, Irvine</t>
+  </si>
+  <si>
+    <t>印度理工学院-坎普尔</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Kanpur</t>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+  </si>
+  <si>
+    <t>Xian Jiaotong University</t>
+  </si>
+  <si>
+    <t>波士顿大学</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>国立南特高等矿业学院</t>
+  </si>
+  <si>
+    <t>Imt Atlantique</t>
   </si>
 </sst>
 </file>
@@ -4478,7 +5148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>342</v>
       </c>
@@ -4796,7 +5466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2EA83-C696-4901-83BF-02B4FA7DA644}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -5413,4 +6083,1440 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E33DD-4354-4B07-9E09-7A9B8BE5056B}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" t="s">
+        <v>424</v>
+      </c>
+      <c r="C28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>430</v>
+      </c>
+      <c r="B31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" t="s">
+        <v>435</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" t="s">
+        <v>429</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" t="s">
+        <v>443</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>444</v>
+      </c>
+      <c r="C36" t="s">
+        <v>397</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>447</v>
+      </c>
+      <c r="B38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>451</v>
+      </c>
+      <c r="B40" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" t="s">
+        <v>455</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" t="s">
+        <v>435</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>458</v>
+      </c>
+      <c r="B43" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>463</v>
+      </c>
+      <c r="B45" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>467</v>
+      </c>
+      <c r="B47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C47" t="s">
+        <v>435</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>469</v>
+      </c>
+      <c r="B48" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" t="s">
+        <v>435</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>397</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>472</v>
+      </c>
+      <c r="B50" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" t="s">
+        <v>474</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>475</v>
+      </c>
+      <c r="B51" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" t="s">
+        <v>477</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B52" t="s">
+        <v>479</v>
+      </c>
+      <c r="C52" t="s">
+        <v>480</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>481</v>
+      </c>
+      <c r="B53" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>483</v>
+      </c>
+      <c r="B54" t="s">
+        <v>484</v>
+      </c>
+      <c r="C54" t="s">
+        <v>455</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>485</v>
+      </c>
+      <c r="B55" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>487</v>
+      </c>
+      <c r="B56" t="s">
+        <v>488</v>
+      </c>
+      <c r="C56" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" t="s">
+        <v>490</v>
+      </c>
+      <c r="C57" t="s">
+        <v>460</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>491</v>
+      </c>
+      <c r="B58" t="s">
+        <v>492</v>
+      </c>
+      <c r="C58" t="s">
+        <v>460</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>493</v>
+      </c>
+      <c r="B59" t="s">
+        <v>494</v>
+      </c>
+      <c r="C59" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>495</v>
+      </c>
+      <c r="B60" t="s">
+        <v>496</v>
+      </c>
+      <c r="C60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>497</v>
+      </c>
+      <c r="B61" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" t="s">
+        <v>404</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>499</v>
+      </c>
+      <c r="B62" t="s">
+        <v>500</v>
+      </c>
+      <c r="C62" t="s">
+        <v>455</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>501</v>
+      </c>
+      <c r="B63" t="s">
+        <v>502</v>
+      </c>
+      <c r="C63" t="s">
+        <v>503</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>504</v>
+      </c>
+      <c r="B64" t="s">
+        <v>505</v>
+      </c>
+      <c r="C64" t="s">
+        <v>382</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>506</v>
+      </c>
+      <c r="B65" t="s">
+        <v>507</v>
+      </c>
+      <c r="C65" t="s">
+        <v>508</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>509</v>
+      </c>
+      <c r="B66" t="s">
+        <v>510</v>
+      </c>
+      <c r="C66" t="s">
+        <v>382</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>511</v>
+      </c>
+      <c r="B67" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>514</v>
+      </c>
+      <c r="B68" t="s">
+        <v>515</v>
+      </c>
+      <c r="C68" t="s">
+        <v>513</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>516</v>
+      </c>
+      <c r="B69" t="s">
+        <v>517</v>
+      </c>
+      <c r="C69" t="s">
+        <v>373</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>518</v>
+      </c>
+      <c r="B70" t="s">
+        <v>519</v>
+      </c>
+      <c r="C70" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>520</v>
+      </c>
+      <c r="B71" t="s">
+        <v>521</v>
+      </c>
+      <c r="C71" t="s">
+        <v>432</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B72" t="s">
+        <v>523</v>
+      </c>
+      <c r="C72" t="s">
+        <v>440</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>524</v>
+      </c>
+      <c r="B73" t="s">
+        <v>525</v>
+      </c>
+      <c r="C73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>526</v>
+      </c>
+      <c r="B74" t="s">
+        <v>527</v>
+      </c>
+      <c r="C74" t="s">
+        <v>460</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>528</v>
+      </c>
+      <c r="B75" t="s">
+        <v>529</v>
+      </c>
+      <c r="C75" t="s">
+        <v>460</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>530</v>
+      </c>
+      <c r="B76" t="s">
+        <v>531</v>
+      </c>
+      <c r="C76" t="s">
+        <v>429</v>
+      </c>
+      <c r="D76">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>532</v>
+      </c>
+      <c r="B77" t="s">
+        <v>533</v>
+      </c>
+      <c r="C77" t="s">
+        <v>534</v>
+      </c>
+      <c r="D77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>535</v>
+      </c>
+      <c r="B78" t="s">
+        <v>536</v>
+      </c>
+      <c r="C78" t="s">
+        <v>382</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>537</v>
+      </c>
+      <c r="B79" t="s">
+        <v>538</v>
+      </c>
+      <c r="C79" t="s">
+        <v>429</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>539</v>
+      </c>
+      <c r="B80" t="s">
+        <v>540</v>
+      </c>
+      <c r="C80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>541</v>
+      </c>
+      <c r="B81" t="s">
+        <v>542</v>
+      </c>
+      <c r="C81" t="s">
+        <v>543</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>544</v>
+      </c>
+      <c r="B82" t="s">
+        <v>545</v>
+      </c>
+      <c r="C82" t="s">
+        <v>546</v>
+      </c>
+      <c r="D82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>547</v>
+      </c>
+      <c r="B83" t="s">
+        <v>548</v>
+      </c>
+      <c r="C83" t="s">
+        <v>549</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>550</v>
+      </c>
+      <c r="B84" t="s">
+        <v>551</v>
+      </c>
+      <c r="C84" t="s">
+        <v>429</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>552</v>
+      </c>
+      <c r="B85" t="s">
+        <v>553</v>
+      </c>
+      <c r="C85" t="s">
+        <v>554</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>555</v>
+      </c>
+      <c r="B86" t="s">
+        <v>556</v>
+      </c>
+      <c r="C86" t="s">
+        <v>373</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>557</v>
+      </c>
+      <c r="B87" t="s">
+        <v>558</v>
+      </c>
+      <c r="C87" t="s">
+        <v>559</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>560</v>
+      </c>
+      <c r="B88" t="s">
+        <v>561</v>
+      </c>
+      <c r="C88" t="s">
+        <v>562</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>563</v>
+      </c>
+      <c r="B89" t="s">
+        <v>564</v>
+      </c>
+      <c r="C89" t="s">
+        <v>404</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>565</v>
+      </c>
+      <c r="B90" t="s">
+        <v>566</v>
+      </c>
+      <c r="C90" t="s">
+        <v>440</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>567</v>
+      </c>
+      <c r="B91" t="s">
+        <v>568</v>
+      </c>
+      <c r="C91" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>569</v>
+      </c>
+      <c r="B92" t="s">
+        <v>570</v>
+      </c>
+      <c r="C92" t="s">
+        <v>373</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>571</v>
+      </c>
+      <c r="B93" t="s">
+        <v>572</v>
+      </c>
+      <c r="C93" t="s">
+        <v>573</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>574</v>
+      </c>
+      <c r="B94" t="s">
+        <v>575</v>
+      </c>
+      <c r="C94" t="s">
+        <v>432</v>
+      </c>
+      <c r="D94">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>576</v>
+      </c>
+      <c r="B95" t="s">
+        <v>577</v>
+      </c>
+      <c r="C95" t="s">
+        <v>513</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>578</v>
+      </c>
+      <c r="B96" t="s">
+        <v>579</v>
+      </c>
+      <c r="C96" t="s">
+        <v>404</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>580</v>
+      </c>
+      <c r="B97" t="s">
+        <v>581</v>
+      </c>
+      <c r="C97" t="s">
+        <v>373</v>
+      </c>
+      <c r="D97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>582</v>
+      </c>
+      <c r="B98" t="s">
+        <v>583</v>
+      </c>
+      <c r="C98" t="s">
+        <v>513</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>584</v>
+      </c>
+      <c r="B99" t="s">
+        <v>585</v>
+      </c>
+      <c r="C99" t="s">
+        <v>404</v>
+      </c>
+      <c r="D99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>586</v>
+      </c>
+      <c r="B100" t="s">
+        <v>587</v>
+      </c>
+      <c r="C100" t="s">
+        <v>373</v>
+      </c>
+      <c r="D100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>588</v>
+      </c>
+      <c r="B101" t="s">
+        <v>589</v>
+      </c>
+      <c r="C101" t="s">
+        <v>435</v>
+      </c>
+      <c r="D101">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>